--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Documents\Felipe\Programacion\PrecioInmueblesMercadoLibre\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A2BC8C-C817-4CC0-8D78-9F084E9EEE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,150 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>preciocasa</t>
+  </si>
+  <si>
+    <t>precioapartamento</t>
+  </si>
+  <si>
+    <t>26/2/2024</t>
+  </si>
+  <si>
+    <t>27/2/2024</t>
+  </si>
+  <si>
+    <t>28/2/2024</t>
+  </si>
+  <si>
+    <t>29/2/2024</t>
+  </si>
+  <si>
+    <t>13/3/2024</t>
+  </si>
+  <si>
+    <t>14/3/2024</t>
+  </si>
+  <si>
+    <t>15/3/2024</t>
+  </si>
+  <si>
+    <t>16/3/2024</t>
+  </si>
+  <si>
+    <t>17/3/2024</t>
+  </si>
+  <si>
+    <t>18/3/2024</t>
+  </si>
+  <si>
+    <t>19/3/2024</t>
+  </si>
+  <si>
+    <t>20/3/2024</t>
+  </si>
+  <si>
+    <t>21/3/2024</t>
+  </si>
+  <si>
+    <t>22/3/2024</t>
+  </si>
+  <si>
+    <t>23/3/2024</t>
+  </si>
+  <si>
+    <t>24/3/2024</t>
+  </si>
+  <si>
+    <t>25/3/2024</t>
+  </si>
+  <si>
+    <t>26/3/2024</t>
+  </si>
+  <si>
+    <t>27/3/2024</t>
+  </si>
+  <si>
+    <t>28/3/2024</t>
+  </si>
+  <si>
+    <t>29/3/2024</t>
+  </si>
+  <si>
+    <t>30/3/2024</t>
+  </si>
+  <si>
+    <t>31/3/2024</t>
+  </si>
+  <si>
+    <t>13/4/2024</t>
+  </si>
+  <si>
+    <t>14/4/2024</t>
+  </si>
+  <si>
+    <t>15/4/2024</t>
+  </si>
+  <si>
+    <t>16/4/2024</t>
+  </si>
+  <si>
+    <t>17/4/2024</t>
+  </si>
+  <si>
+    <t>18/4/2024</t>
+  </si>
+  <si>
+    <t>19/4/2024</t>
+  </si>
+  <si>
+    <t>20/4/2024</t>
+  </si>
+  <si>
+    <t>21/4/2024</t>
+  </si>
+  <si>
+    <t>22/4/2024</t>
+  </si>
+  <si>
+    <t>23/4/2024</t>
+  </si>
+  <si>
+    <t>24/4/2024</t>
+  </si>
+  <si>
+    <t>25/4/2024</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF2E2E2E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF2E2E2E"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +190,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +480,691 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>289419</v>
+      </c>
+      <c r="C2" s="2">
+        <v>224074</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>286777</v>
+      </c>
+      <c r="C3" s="2">
+        <v>222417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>289366</v>
+      </c>
+      <c r="C4" s="2">
+        <v>228142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>294838</v>
+      </c>
+      <c r="C5" s="2">
+        <v>233277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>45294</v>
+      </c>
+      <c r="B6" s="2">
+        <v>304689</v>
+      </c>
+      <c r="C6" s="2">
+        <v>242201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>45325</v>
+      </c>
+      <c r="B7" s="2">
+        <v>297353</v>
+      </c>
+      <c r="C7" s="2">
+        <v>234090</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>45354</v>
+      </c>
+      <c r="B8" s="2">
+        <v>299528</v>
+      </c>
+      <c r="C8" s="2">
+        <v>234567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>45385</v>
+      </c>
+      <c r="B9" s="2">
+        <v>297147</v>
+      </c>
+      <c r="C9" s="2">
+        <v>232072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>45415</v>
+      </c>
+      <c r="B10" s="2">
+        <v>298512</v>
+      </c>
+      <c r="C10" s="2">
+        <v>218926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>45446</v>
+      </c>
+      <c r="B11" s="2">
+        <v>299478</v>
+      </c>
+      <c r="C11" s="2">
+        <v>230983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>45476</v>
+      </c>
+      <c r="B12" s="2">
+        <v>285891</v>
+      </c>
+      <c r="C12" s="2">
+        <v>211269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>45507</v>
+      </c>
+      <c r="B13" s="2">
+        <v>286112</v>
+      </c>
+      <c r="C13" s="2">
+        <v>206535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>45538</v>
+      </c>
+      <c r="B14" s="2">
+        <v>289999</v>
+      </c>
+      <c r="C14" s="2">
+        <v>207414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>45568</v>
+      </c>
+      <c r="B15" s="2">
+        <v>294244</v>
+      </c>
+      <c r="C15" s="2">
+        <v>210714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>45599</v>
+      </c>
+      <c r="B16" s="2">
+        <v>290654</v>
+      </c>
+      <c r="C16" s="2">
+        <v>208866</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>45629</v>
+      </c>
+      <c r="B17" s="2">
+        <v>293155</v>
+      </c>
+      <c r="C17" s="2">
+        <v>208920</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2">
+        <v>303344</v>
+      </c>
+      <c r="C18" s="2">
+        <v>238064</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2">
+        <v>298742</v>
+      </c>
+      <c r="C19" s="2">
+        <v>250940</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2">
+        <v>317125</v>
+      </c>
+      <c r="C20" s="2">
+        <v>247903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2">
+        <v>317243</v>
+      </c>
+      <c r="C21" s="2">
+        <v>253202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2">
+        <v>319810</v>
+      </c>
+      <c r="C22" s="2">
+        <v>256049</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2">
+        <v>281492</v>
+      </c>
+      <c r="C23" s="2">
+        <v>241523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="2">
+        <v>283134</v>
+      </c>
+      <c r="C24" s="2">
+        <v>241749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="2">
+        <v>284410</v>
+      </c>
+      <c r="C25" s="2">
+        <v>238660</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="2">
+        <v>288546</v>
+      </c>
+      <c r="C26" s="2">
+        <v>235541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="2">
+        <v>314189</v>
+      </c>
+      <c r="C27" s="2">
+        <v>252996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="2">
+        <v>319177</v>
+      </c>
+      <c r="C28" s="2">
+        <v>244926</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="2">
+        <v>322464</v>
+      </c>
+      <c r="C29" s="2">
+        <v>243795</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="2">
+        <v>298388</v>
+      </c>
+      <c r="C30" s="2">
+        <v>238903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="2">
+        <v>304551</v>
+      </c>
+      <c r="C31" s="2">
+        <v>238787</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="2">
+        <v>300982</v>
+      </c>
+      <c r="C32" s="2">
+        <v>234130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="2">
+        <v>298066</v>
+      </c>
+      <c r="C33" s="2">
+        <v>225645</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="2">
+        <v>287754</v>
+      </c>
+      <c r="C34" s="2">
+        <v>212784</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="2">
+        <v>295782</v>
+      </c>
+      <c r="C35" s="2">
+        <v>210472</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="2">
+        <v>295015</v>
+      </c>
+      <c r="C36" s="2">
+        <v>217211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>45295</v>
+      </c>
+      <c r="B37" s="2">
+        <v>306461</v>
+      </c>
+      <c r="C37" s="2">
+        <v>212331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>45326</v>
+      </c>
+      <c r="B38" s="2">
+        <v>291068</v>
+      </c>
+      <c r="C38" s="2">
+        <v>211506</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>45355</v>
+      </c>
+      <c r="B39" s="2">
+        <v>288335</v>
+      </c>
+      <c r="C39" s="2">
+        <v>212188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>45386</v>
+      </c>
+      <c r="B40" s="2">
+        <v>286909</v>
+      </c>
+      <c r="C40" s="2">
+        <v>213869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>45416</v>
+      </c>
+      <c r="B41" s="2">
+        <v>281069</v>
+      </c>
+      <c r="C41" s="2">
+        <v>215005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>45447</v>
+      </c>
+      <c r="B42" s="2">
+        <v>283271</v>
+      </c>
+      <c r="C42" s="2">
+        <v>216909</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B43" s="2">
+        <v>272290</v>
+      </c>
+      <c r="C43" s="2">
+        <v>210766</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>45508</v>
+      </c>
+      <c r="B44" s="2">
+        <v>276570</v>
+      </c>
+      <c r="C44" s="2">
+        <v>221497</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>45539</v>
+      </c>
+      <c r="B45" s="2">
+        <v>282829</v>
+      </c>
+      <c r="C45" s="2">
+        <v>208198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>45569</v>
+      </c>
+      <c r="B46" s="2">
+        <v>284493</v>
+      </c>
+      <c r="C46" s="2">
+        <v>215042</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>45600</v>
+      </c>
+      <c r="B47" s="2">
+        <v>286488</v>
+      </c>
+      <c r="C47" s="2">
+        <v>213350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>45630</v>
+      </c>
+      <c r="B48" s="2">
+        <v>287610</v>
+      </c>
+      <c r="C48" s="2">
+        <v>210659</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="2">
+        <v>281006</v>
+      </c>
+      <c r="C49" s="2">
+        <v>205831</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="2">
+        <v>279412</v>
+      </c>
+      <c r="C50" s="2">
+        <v>205663</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="2">
+        <v>297204</v>
+      </c>
+      <c r="C51" s="2">
+        <v>197189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="2">
+        <v>284576</v>
+      </c>
+      <c r="C52" s="2">
+        <v>203922</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="2">
+        <v>287081</v>
+      </c>
+      <c r="C53" s="2">
+        <v>211861</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="2">
+        <v>288785</v>
+      </c>
+      <c r="C54" s="2">
+        <v>207952</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="2">
+        <v>289874</v>
+      </c>
+      <c r="C55" s="2">
+        <v>209166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" s="2">
+        <v>286144</v>
+      </c>
+      <c r="C56" s="2">
+        <v>211630</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="2">
+        <v>288304</v>
+      </c>
+      <c r="C57" s="2">
+        <v>209556</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="2">
+        <v>288219</v>
+      </c>
+      <c r="C58" s="2">
+        <v>210779</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="2">
+        <v>287970</v>
+      </c>
+      <c r="C59" s="2">
+        <v>211714</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="2">
+        <v>283953</v>
+      </c>
+      <c r="C60" s="2">
+        <v>205941</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="2">
+        <v>285397</v>
+      </c>
+      <c r="C61" s="2">
+        <v>205049</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Documents\Felipe\Programacion\PrecioInmueblesMercadoLibre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A2BC8C-C817-4CC0-8D78-9F084E9EEE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEB0627-8FE3-41D2-8350-9BF64EFD2C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -201,6 +201,10 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,17 +488,18 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.88671875" style="5"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -505,7 +510,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
@@ -516,7 +521,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
@@ -527,7 +532,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2">
@@ -538,7 +543,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
@@ -681,7 +686,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="2">
@@ -692,7 +697,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="2">
@@ -703,7 +708,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="2">
@@ -714,7 +719,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="2">
@@ -725,7 +730,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="2">
@@ -736,7 +741,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="2">
@@ -747,7 +752,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="2">
@@ -758,7 +763,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="2">
@@ -769,7 +774,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="2">
@@ -780,7 +785,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="2">
@@ -791,7 +796,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="2">
@@ -802,7 +807,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="2">
@@ -813,7 +818,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="2">
@@ -824,7 +829,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="2">
@@ -835,7 +840,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="2">
@@ -846,7 +851,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="2">
@@ -857,7 +862,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="2">
@@ -868,7 +873,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="2">
@@ -879,7 +884,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="2">
@@ -1022,7 +1027,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B49" s="2">
@@ -1033,7 +1038,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B50" s="2">
@@ -1044,7 +1049,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B51" s="2">
@@ -1055,7 +1060,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B52" s="2">
@@ -1066,7 +1071,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B53" s="2">
@@ -1077,7 +1082,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B54" s="2">
@@ -1088,7 +1093,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B55" s="2">
@@ -1099,7 +1104,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B56" s="2">
@@ -1110,7 +1115,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B57" s="2">
@@ -1121,7 +1126,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B58" s="2">
@@ -1132,7 +1137,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B59" s="2">
@@ -1143,7 +1148,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B60" s="2">
@@ -1154,7 +1159,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B61" s="2">

--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Documents\Felipe\Programacion\PrecioInmueblesMercadoLibre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEB0627-8FE3-41D2-8350-9BF64EFD2C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4EADE7-F0AB-436C-BFD9-8266D7DD2A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>fecha</t>
   </si>
@@ -142,13 +142,85 @@
   </si>
   <si>
     <t>25/4/2024</t>
+  </si>
+  <si>
+    <t>1/3/2024</t>
+  </si>
+  <si>
+    <t>2/3/2024</t>
+  </si>
+  <si>
+    <t>3/3/2024</t>
+  </si>
+  <si>
+    <t>4/3/2024</t>
+  </si>
+  <si>
+    <t>5/3/2024</t>
+  </si>
+  <si>
+    <t>6/3/2024</t>
+  </si>
+  <si>
+    <t>7/3/2024</t>
+  </si>
+  <si>
+    <t>8/3/2024</t>
+  </si>
+  <si>
+    <t>2/9/2024</t>
+  </si>
+  <si>
+    <t>10/3/2024</t>
+  </si>
+  <si>
+    <t>11/3/2024</t>
+  </si>
+  <si>
+    <t>12/3/2024</t>
+  </si>
+  <si>
+    <t>1/4/2024</t>
+  </si>
+  <si>
+    <t>2/4/2024</t>
+  </si>
+  <si>
+    <t>3/4/2024</t>
+  </si>
+  <si>
+    <t>4/4/2024</t>
+  </si>
+  <si>
+    <t>5/4/2024</t>
+  </si>
+  <si>
+    <t>6/4/2024</t>
+  </si>
+  <si>
+    <t>7/4/2024</t>
+  </si>
+  <si>
+    <t>8/4/2024</t>
+  </si>
+  <si>
+    <t>9/4/2024</t>
+  </si>
+  <si>
+    <t>10/4/2024</t>
+  </si>
+  <si>
+    <t>11/4/2024</t>
+  </si>
+  <si>
+    <t>12/4/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +240,12 @@
       <color rgb="FF2E2E2E"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -201,10 +279,13 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,20 +566,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="8.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -509,8 +590,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
@@ -520,8 +601,8 @@
         <v>224074</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
@@ -531,8 +612,8 @@
         <v>222417</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2">
@@ -542,8 +623,8 @@
         <v>228142</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
@@ -552,10 +633,11 @@
       <c r="C5" s="2">
         <v>233277</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>45294</v>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="B6" s="2">
         <v>304689</v>
@@ -563,10 +645,11 @@
       <c r="C6" s="2">
         <v>242201</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>45325</v>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="2">
         <v>297353</v>
@@ -574,10 +657,11 @@
       <c r="C7" s="2">
         <v>234090</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>45354</v>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="B8" s="2">
         <v>299528</v>
@@ -585,10 +669,11 @@
       <c r="C8" s="2">
         <v>234567</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>45385</v>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B9" s="2">
         <v>297147</v>
@@ -596,10 +681,11 @@
       <c r="C9" s="2">
         <v>232072</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>45415</v>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="B10" s="2">
         <v>298512</v>
@@ -607,10 +693,11 @@
       <c r="C10" s="2">
         <v>218926</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>45446</v>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B11" s="2">
         <v>299478</v>
@@ -618,10 +705,11 @@
       <c r="C11" s="2">
         <v>230983</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>45476</v>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B12" s="2">
         <v>285891</v>
@@ -629,10 +717,11 @@
       <c r="C12" s="2">
         <v>211269</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>45507</v>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B13" s="2">
         <v>286112</v>
@@ -640,10 +729,11 @@
       <c r="C13" s="2">
         <v>206535</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>45538</v>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B14" s="2">
         <v>289999</v>
@@ -651,10 +741,11 @@
       <c r="C14" s="2">
         <v>207414</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>45568</v>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B15" s="2">
         <v>294244</v>
@@ -662,10 +753,11 @@
       <c r="C15" s="2">
         <v>210714</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>45599</v>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="B16" s="2">
         <v>290654</v>
@@ -673,10 +765,11 @@
       <c r="C16" s="2">
         <v>208866</v>
       </c>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>45629</v>
+      <c r="A17" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B17" s="2">
         <v>293155</v>
@@ -686,7 +779,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="2">
@@ -697,7 +790,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="2">
@@ -708,7 +801,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="2">
@@ -719,7 +812,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="2">
@@ -730,7 +823,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="2">
@@ -741,7 +834,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="2">
@@ -752,7 +845,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="2">
@@ -763,7 +856,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="2">
@@ -774,7 +867,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="2">
@@ -785,7 +878,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="2">
@@ -796,7 +889,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="2">
@@ -807,7 +900,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="2">
@@ -818,7 +911,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="2">
@@ -829,7 +922,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="2">
@@ -840,7 +933,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="2">
@@ -851,7 +944,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="2">
@@ -862,7 +955,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="2">
@@ -873,7 +966,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="2">
@@ -884,7 +977,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="2">
@@ -895,8 +988,8 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>45295</v>
+      <c r="A37" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="B37" s="2">
         <v>306461</v>
@@ -906,8 +999,8 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>45326</v>
+      <c r="A38" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="B38" s="2">
         <v>291068</v>
@@ -917,8 +1010,8 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>45355</v>
+      <c r="A39" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="B39" s="2">
         <v>288335</v>
@@ -928,8 +1021,8 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>45386</v>
+      <c r="A40" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="B40" s="2">
         <v>286909</v>
@@ -939,8 +1032,8 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>45416</v>
+      <c r="A41" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B41" s="2">
         <v>281069</v>
@@ -950,8 +1043,8 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>45447</v>
+      <c r="A42" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B42" s="2">
         <v>283271</v>
@@ -961,8 +1054,8 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>45477</v>
+      <c r="A43" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="B43" s="2">
         <v>272290</v>
@@ -972,8 +1065,8 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>45508</v>
+      <c r="A44" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="B44" s="2">
         <v>276570</v>
@@ -983,8 +1076,8 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>45539</v>
+      <c r="A45" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="B45" s="2">
         <v>282829</v>
@@ -994,8 +1087,8 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>45569</v>
+      <c r="A46" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B46" s="2">
         <v>284493</v>
@@ -1005,8 +1098,8 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
-        <v>45600</v>
+      <c r="A47" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="B47" s="2">
         <v>286488</v>
@@ -1016,8 +1109,8 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>45630</v>
+      <c r="A48" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="B48" s="2">
         <v>287610</v>
@@ -1027,7 +1120,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B49" s="2">
@@ -1038,7 +1131,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B50" s="2">
@@ -1049,7 +1142,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B51" s="2">
@@ -1060,7 +1153,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B52" s="2">
@@ -1071,7 +1164,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B53" s="2">
@@ -1082,7 +1175,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B54" s="2">
@@ -1093,7 +1186,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B55" s="2">
@@ -1104,7 +1197,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B56" s="2">
@@ -1115,7 +1208,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B57" s="2">
@@ -1126,7 +1219,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B58" s="2">
@@ -1137,7 +1230,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B59" s="2">
@@ -1148,7 +1241,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B60" s="2">
@@ -1159,7 +1252,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B61" s="2">
@@ -1170,6 +1263,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>